--- a/biology/Médecine/Harold_J._Cook/Harold_J._Cook.xlsx
+++ b/biology/Médecine/Harold_J._Cook/Harold_J._Cook.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harold John Cook (né en 1952) est un historien de la médecine américain et professeur d'histoire John F. Nickoll à l'université Brown.
 </t>
@@ -511,11 +523,13 @@
           <t>Formation et carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie au Cornell College où il obtient en 1974 son Bachelor of Arts. Puis il part à l'université du Michigan où il obtient son mastère en 1975 et son doctorat en 1981.
 En 1982 il est Professeur assistant à l'université Harvard ; en 1985 il devient Professeur assistant à l'université du Wisconsin à Madison, où il passe Professeur associé en 1988 puis Professeur en 1993.
-Il a été directeur du Centre Wellcome Trust pour l'histoire de la médecine (en) à l'university College de Londres (UCL) de 2000 à 2009 et a été Professeur invité reine Wilhelmina d'histoire à l'université Columbia à New York au cours de l'année universitaire 2007-2008[1]. 
+Il a été directeur du Centre Wellcome Trust pour l'histoire de la médecine (en) à l'university College de Londres (UCL) de 2000 à 2009 et a été Professeur invité reine Wilhelmina d'histoire à l'université Columbia à New York au cours de l'année universitaire 2007-2008. 
 Depuis 2010 il est Professeur d'histoire John F. Nickoll à l'université Brown.
 </t>
         </is>
@@ -545,11 +559,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les recherches du professeur Cook comprennent un certain nombre de projets connexes sur la manière dont les connaissances médicales ont été échangées entre des sites distants. Plus généralement, il s'intéresse à la manière dont se déroulent les défis et les opportunités du domaine de l'histoire de la médecine dans le contexte des récents développements de l'histoire globale[1]. 
-Cook est corédacteur de la revue Medical History (en), siège à plusieurs conseils consultatifs et organismes professionnels, et a été élu membre honoraire du Collège royal de médecine[1]. 
-Dans Matters of Exchange (2007), Cook affirme que le commerce international a changé la façon de penser des Néerlandais et de leurs interlocuteurs. Il suggère que la préférence pour des informations précises accompagnant l'essor du commerce a également jeté les bases de l'essor de la science à l'échelle mondiale. Le livre documente les développements de la médecine et de l'histoire naturelle qui sont des aspects fondamentaux de cette nouvelle science. En tant que port capitale d’un empire colonial, Amsterdam est le point d’arrivée de la plupart des nouveautés : cabinet de curiosité et jardins botaniques se développent à la faveur de toutes les richesses collectées par les marins, commerçants et explorateurs[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les recherches du professeur Cook comprennent un certain nombre de projets connexes sur la manière dont les connaissances médicales ont été échangées entre des sites distants. Plus généralement, il s'intéresse à la manière dont se déroulent les défis et les opportunités du domaine de l'histoire de la médecine dans le contexte des récents développements de l'histoire globale. 
+Cook est corédacteur de la revue Medical History (en), siège à plusieurs conseils consultatifs et organismes professionnels, et a été élu membre honoraire du Collège royal de médecine. 
+Dans Matters of Exchange (2007), Cook affirme que le commerce international a changé la façon de penser des Néerlandais et de leurs interlocuteurs. Il suggère que la préférence pour des informations précises accompagnant l'essor du commerce a également jeté les bases de l'essor de la science à l'échelle mondiale. Le livre documente les développements de la médecine et de l'histoire naturelle qui sont des aspects fondamentaux de cette nouvelle science. En tant que port capitale d’un empire colonial, Amsterdam est le point d’arrivée de la plupart des nouveautés : cabinet de curiosité et jardins botaniques se développent à la faveur de toutes les richesses collectées par les marins, commerçants et explorateurs.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est lauréat en 2009 du prix Pfizer décerné l’History of Science Society, pour son ouvrage Matters of Exchange: Commerce, Medicine, and Science in the Dutch Golden Age (Yale University Press, 2007)[3],[4],[5],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est lauréat en 2009 du prix Pfizer décerné l’History of Science Society, pour son ouvrage Matters of Exchange: Commerce, Medicine, and Science in the Dutch Golden Age (Yale University Press, 2007).
 Il a également obtenu la deuxième place pour le prix Cundill (en) 2008.
 </t>
         </is>
@@ -612,14 +630,53 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Livres
-2018 - The Young  Descartes: Nobility, Rumor and War.lire en ligne University of Chicago Press.  (ISBN 978-0-226-46296-7)
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2018 - The Young  Descartes: Nobility, Rumor and War.lire en ligne University of Chicago Press.  (ISBN 978-0-226-46296-7)
 2014 : (en) co-édité avec Amy Meyers et Pamela H. Smith, Ways of Making and Knowing : The Material Culture of Empirical Knowledge, Centre de hautes études du Bard / University of Michigan Press, 2014, 1re éd., 430 p. (ISBN 978-0-472-11927-1)
 2007 - Matters of Exchange: Commerce, Medicine, and Science in the Dutch Golden Age.lire en ligne Yale University Press,  (ISBN 978-0-300-11796-7).
 1994 - Trials of an Ordinary Doctor: Joannes Groenevelt in Seventeenth-Century London. Johns Hopkins University Press.  (ISBN 978-0-8018-4778-3).
-1986 - The Decline of the Old Medical Regime in Stuart London. Ithaca: Cornell University Press.  (ISBN 978-0-8014-1850-1).
-Articles et contributions
-2008 : Harold J. Cook, « Amsterdam, entrepôt des savoirs au XVIIe siècle », Revue d’histoire moderne et contemporaine 2008/2 (n° 55-2), p. 19-42.,‎ 2008
+1986 - The Decline of the Old Medical Regime in Stuart London. Ithaca: Cornell University Press.  (ISBN 978-0-8014-1850-1).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Harold_J._Cook</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harold_J._Cook</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Articles et contributions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2008 : Harold J. Cook, « Amsterdam, entrepôt des savoirs au XVIIe siècle », Revue d’histoire moderne et contemporaine 2008/2 (n° 55-2), p. 19-42.,‎ 2008
 2006 : "What Stays Constant at the Heart of Medicine",éditorial , British Medical Journal (BMJ ) 333 (23 décembre 2006): p. 1281-1282.
 2006 : "Medicine" dans The Cambridge History of Science, vol. 3: Early Modern Science, ed. Katharine Park et Lorraine Daston. Cambridge: Cambridge University Press, p. 407–434.
 2006 : "Introduction" à The Western Medical Tradition 1800 to 2000. Cambridge: Cambridge University Press, p. 1–6.
